--- a/技能调查表_租赁转让网.xlsx
+++ b/技能调查表_租赁转让网.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\下载项\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530E12B2-C9BC-4947-B087-2877FB9C2614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1E92AF-2AED-4D4A-8AE6-19FA6A3D2E3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>鉴真网项目开发技能调查表  2020-5-5</t>
   </si>
@@ -136,10 +136,6 @@
   </si>
   <si>
     <t>一般</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>略略略</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -574,7 +570,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="G18" activeCellId="1" sqref="F20 G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -883,9 +879,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>36</v>
-      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
